--- a/mcmaster_excel/Sealing_Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Sealing_Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,176 +434,142 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDiameter</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHeight</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>For MaximumHole Diameter</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>O-Ring TemperatureRange, °F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>MaximumPressure, psi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr"/>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>18-8 Stainless Steel with Buna-N Rubber O-Ring</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDiameter</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHeight</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>For MaximumHole Diameter</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>O-Ring TemperatureRange, °F</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>MaximumPressure, psi</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.262"</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.073"</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.151"</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>T10</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>70,000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>-40° to 225°</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1,500</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ASME B18.3</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>91997A195</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>$20.72</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>6-32</t>
-        </is>
-      </c>
+          <t>18-8 Stainless Steel with Buna-N Rubber O-Ring</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -658,12 +624,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>91997A196</t>
+          <t>91997A195</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20.72</t>
+          <t>$20.72</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -676,7 +642,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -731,7 +697,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>91997A198</t>
+          <t>91997A196</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -749,7 +715,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -804,7 +770,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>91997A201</t>
+          <t>91997A198</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -822,7 +788,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -877,7 +843,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>91997A202</t>
+          <t>91997A201</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -895,7 +861,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -905,22 +871,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.312"</t>
+          <t>0.262"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.087"</t>
+          <t>0.073"</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.177"</t>
+          <t>0.151"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>T15</t>
+          <t>T10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -950,7 +916,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>91997A204</t>
+          <t>91997A202</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -960,7 +926,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -968,7 +934,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1023,7 +989,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>91997A205</t>
+          <t>91997A204</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1041,7 +1007,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1096,7 +1062,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>91997A206</t>
+          <t>91997A205</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1114,7 +1080,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1169,7 +1135,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>91997A207</t>
+          <t>91997A206</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1187,7 +1153,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1242,7 +1208,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>91997A208</t>
+          <t>91997A207</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1260,7 +1226,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1315,7 +1281,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>91997A209</t>
+          <t>91997A208</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1333,7 +1299,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1343,22 +1309,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.361"</t>
+          <t>0.312"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.101"</t>
+          <t>0.087"</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.2"</t>
+          <t>0.177"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>T25</t>
+          <t>T15</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1388,17 +1354,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>91997A212</t>
+          <t>91997A209</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20.71</t>
+          <t>20.72</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1406,7 +1372,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1461,7 +1427,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>91997A214</t>
+          <t>91997A212</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1479,7 +1445,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1534,7 +1500,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>91997A215</t>
+          <t>91997A214</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1552,7 +1518,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1607,7 +1573,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>91997A216</t>
+          <t>91997A215</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1617,7 +1583,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -1625,7 +1591,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1680,7 +1646,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>91997A217</t>
+          <t>91997A216</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1698,7 +1664,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1753,7 +1719,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>91997A218</t>
+          <t>91997A217</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1771,7 +1737,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1826,7 +1792,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>91997A219</t>
+          <t>91997A218</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1844,7 +1810,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1854,22 +1820,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.437"</t>
+          <t>0.361"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.132"</t>
+          <t>0.101"</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.2"</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>T27</t>
+          <t>T25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1899,7 +1865,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>91997A222</t>
+          <t>91997A219</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1909,7 +1875,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1917,7 +1883,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1972,7 +1938,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>91997A223</t>
+          <t>91997A222</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1990,7 +1956,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2045,7 +2011,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>91997A224</t>
+          <t>91997A223</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2063,7 +2029,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2118,7 +2084,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>91997A225</t>
+          <t>91997A224</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2136,75 +2102,148 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.437"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.132"</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.265"</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-40° to 225°</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ASME B18.3</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>91997A225</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Fully Threaded</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>0.437"</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>0.132"</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>0.265"</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>T27</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>70,000</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>-40° to 225°</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>1,500</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ASME B18.3</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>91997A226</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>20.71</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
